--- a/data/trans_dic/P36$fruta-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36$fruta-Habitat-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01640595901633716</v>
+        <v>0.01565265753969054</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0642089580133037</v>
+        <v>0.06304821467341432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1012713803195619</v>
+        <v>0.1016656037817576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04104091974934052</v>
+        <v>0.04160284985331791</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.084002891245623</v>
+        <v>0.08521500127712101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1016197164730736</v>
+        <v>0.1010896654142543</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03147060950379257</v>
+        <v>0.03169460240995777</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07914343150123879</v>
+        <v>0.07926317172437158</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1093498626547255</v>
+        <v>0.1093004904291578</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04129732300566378</v>
+        <v>0.04175863353559949</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1050243493860308</v>
+        <v>0.1073834071480031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1530591440209167</v>
+        <v>0.1557333577383092</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07506318123504691</v>
+        <v>0.07560484662555364</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1318638214337887</v>
+        <v>0.1350605085082487</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1531816143927772</v>
+        <v>0.1494498547125383</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05445576814521931</v>
+        <v>0.05283470880508222</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1118951111014059</v>
+        <v>0.1124578322122132</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1454698116274872</v>
+        <v>0.1436791132212581</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06819265819599582</v>
+        <v>0.06966364767192412</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0805392328989511</v>
+        <v>0.0788720018422672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1130885337042246</v>
+        <v>0.1162547182299657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09811573561797907</v>
+        <v>0.09652553908567114</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.08415207552802718</v>
+        <v>0.08557912069848317</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1169432327141199</v>
+        <v>0.1161817543489836</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08589669928998354</v>
+        <v>0.08741272326264179</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08819750228400668</v>
+        <v>0.08738011084222579</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1215754805064848</v>
+        <v>0.1216573695160367</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1077770781870089</v>
+        <v>0.1078684500606735</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1207885583610152</v>
+        <v>0.1180104477435995</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1591571386521706</v>
+        <v>0.1598906268085038</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1405699368553485</v>
+        <v>0.1397033683399796</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1240950149786315</v>
+        <v>0.1263021645905022</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1604684027592898</v>
+        <v>0.1600023575456082</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1149501703098028</v>
+        <v>0.1163749746973772</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1168779454322416</v>
+        <v>0.1158168525620209</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1541967820413129</v>
+        <v>0.1518421255457208</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0829517184968819</v>
+        <v>0.08282826635732517</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1287415453318789</v>
+        <v>0.1296389809746358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09816043993815086</v>
+        <v>0.09737878780482677</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.119711454722408</v>
+        <v>0.1188030739370447</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1240547305710285</v>
+        <v>0.1261691230876092</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1218295953358201</v>
+        <v>0.1235913268531942</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1067047038983286</v>
+        <v>0.1078177869169816</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1350002101377226</v>
+        <v>0.1323270895693762</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1172163047172396</v>
+        <v>0.1175927554417318</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1293763272215314</v>
+        <v>0.1301164815193298</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1875644465561375</v>
+        <v>0.1856374911982517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1506984098271378</v>
+        <v>0.1475874400621665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1737950534611928</v>
+        <v>0.1697285872466338</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1776016808925215</v>
+        <v>0.1772231682532979</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1737709763530685</v>
+        <v>0.1757470005448178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1426530861150503</v>
+        <v>0.1437122663560579</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1721125353602004</v>
+        <v>0.1728920704754309</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1523410054799914</v>
+        <v>0.153078195123403</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07946940028628374</v>
+        <v>0.08054846103463054</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1182440201764754</v>
+        <v>0.1183323835454108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1142461177760352</v>
+        <v>0.1108554748680119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0884154672089091</v>
+        <v>0.08734968023279585</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1211573015727154</v>
+        <v>0.1230863733042736</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1052545039636034</v>
+        <v>0.1033979627251563</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08907156872263856</v>
+        <v>0.0898484165409472</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1258617153194231</v>
+        <v>0.1291198143296716</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1143328768742353</v>
+        <v>0.1142240323624507</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.11837122451558</v>
+        <v>0.1195842952795113</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1637606474877414</v>
+        <v>0.1643857606813817</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1623950586345801</v>
+        <v>0.157246427109943</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1284080920418291</v>
+        <v>0.1269252153421646</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1658700382374948</v>
+        <v>0.1652914394074649</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1458404385220073</v>
+        <v>0.1443915016214881</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1172482587855299</v>
+        <v>0.1176513798543676</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1572285526752912</v>
+        <v>0.1605299420095674</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1450997848811961</v>
+        <v>0.1452479888439839</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07145092058494967</v>
+        <v>0.07177480802654362</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1094068521056802</v>
+        <v>0.1080398513758748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1185263092814241</v>
+        <v>0.1187000819599688</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0956539817037276</v>
+        <v>0.09502296210320423</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1145804133039304</v>
+        <v>0.1138862003627599</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1217813895565747</v>
+        <v>0.121547263908016</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08650196272691862</v>
+        <v>0.08698712821836836</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1154288641136289</v>
+        <v>0.1150992488572606</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1245082466286633</v>
+        <v>0.1236173260227487</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09102700855034014</v>
+        <v>0.09133421457372747</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1327571014362802</v>
+        <v>0.1318619456810869</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1409615001552084</v>
+        <v>0.1421746227573321</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.117148927162351</v>
+        <v>0.1173653266526122</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1372820599740808</v>
+        <v>0.1376475222886472</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.14368836438545</v>
+        <v>0.1448676133478753</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1005334747727446</v>
+        <v>0.101472852058929</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1323077655867411</v>
+        <v>0.1309867823851373</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1407880288969757</v>
+        <v>0.1395164610491213</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11370</v>
+        <v>10848</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45041</v>
+        <v>44226</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>68157</v>
+        <v>68422</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28251</v>
+        <v>28637</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58475</v>
+        <v>59319</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>68252</v>
+        <v>67896</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43473</v>
+        <v>43782</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>110609</v>
+        <v>110777</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>147038</v>
+        <v>146972</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28620</v>
+        <v>28940</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73671</v>
+        <v>75326</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>103011</v>
+        <v>104811</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51670</v>
+        <v>52043</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>91792</v>
+        <v>94017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>102884</v>
+        <v>100377</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>75224</v>
+        <v>72985</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>156382</v>
+        <v>157169</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>195608</v>
+        <v>193200</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>65388</v>
+        <v>66798</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>81985</v>
+        <v>80288</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>115501</v>
+        <v>118734</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>94917</v>
+        <v>93378</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>86687</v>
+        <v>88157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>121851</v>
+        <v>121058</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>165459</v>
+        <v>168380</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>180634</v>
+        <v>178960</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>250846</v>
+        <v>251015</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>103344</v>
+        <v>103431</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>122956</v>
+        <v>120128</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>162552</v>
+        <v>163301</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>135987</v>
+        <v>135148</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>127833</v>
+        <v>130107</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>167203</v>
+        <v>166717</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>221424</v>
+        <v>224168</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>239374</v>
+        <v>237201</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>318153</v>
+        <v>313295</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>56197</v>
+        <v>56113</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>97276</v>
+        <v>97955</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>74452</v>
+        <v>73859</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>81864</v>
+        <v>81242</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>96288</v>
+        <v>97929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>95638</v>
+        <v>97021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>145258</v>
+        <v>146773</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>206790</v>
+        <v>202695</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>180921</v>
+        <v>181502</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87648</v>
+        <v>88150</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>141723</v>
+        <v>140267</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>114300</v>
+        <v>111940</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>118848</v>
+        <v>116067</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>137850</v>
+        <v>137556</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>136412</v>
+        <v>137963</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>194195</v>
+        <v>195637</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>263637</v>
+        <v>264831</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>235135</v>
+        <v>236273</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74737</v>
+        <v>75752</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>111843</v>
+        <v>111926</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>107113</v>
+        <v>103934</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>91562</v>
+        <v>90458</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>127188</v>
+        <v>129213</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109745</v>
+        <v>107810</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>176009</v>
+        <v>177544</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>251175</v>
+        <v>257677</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226406</v>
+        <v>226190</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>111323</v>
+        <v>112463</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>154895</v>
+        <v>155487</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>152256</v>
+        <v>147429</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132978</v>
+        <v>131442</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>174127</v>
+        <v>173519</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>152063</v>
+        <v>150552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>231687</v>
+        <v>232484</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>313772</v>
+        <v>320360</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>287332</v>
+        <v>287625</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>233631</v>
+        <v>234690</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>374267</v>
+        <v>369591</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>401849</v>
+        <v>402438</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>322849</v>
+        <v>320719</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>407011</v>
+        <v>404545</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>431263</v>
+        <v>430434</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>574805</v>
+        <v>578029</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>804893</v>
+        <v>802594</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>863050</v>
+        <v>856875</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>297642</v>
+        <v>298646</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>454146</v>
+        <v>451083</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>477913</v>
+        <v>482026</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>395398</v>
+        <v>396128</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>487651</v>
+        <v>488949</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>508842</v>
+        <v>513018</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>668044</v>
+        <v>674286</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>922590</v>
+        <v>913379</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>975896</v>
+        <v>967082</v>
       </c>
     </row>
     <row r="24">
